--- a/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/S-PCA/m1_results_S-PCA.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/S-PCA/m1_results_S-PCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3841,6 +3841,650 @@
         <v>0.965105898303535</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:36</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>10</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.6832539858573135</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:36</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>10</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.6824274371121277</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:36</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.5430190088399398</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:36</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>10</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.6888464370033944</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:36</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>10</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.685377026532934</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:37</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>10</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.6866927584874289</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:37</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.5372232041800609</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:37</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.5370654831575581</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:37</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.529906608328365</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:37</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.5463945139545814</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:37</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>10</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.6777993948529082</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:37</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>10</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.6832857918439053</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:37</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.5304085584820892</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:38</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>30</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.4372067598742038</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:38</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.5437831482888089</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:38</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>30</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.4512105366595455</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:38</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>30</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.4561276175217827</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:38</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>30</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.448608784273391</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:38</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>30</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.435017901375769</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:39</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>40</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.3608176208054734</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:39</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>30</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.4429020612955527</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:39</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>40</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.3748490918771323</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:39</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>30</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.448449170617598</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:39</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>40</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.3726524685589809</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:39</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>40</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.3625392394626541</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:39</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>40</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.3734577247715302</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:40</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>40</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.3837302197909441</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:40</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>40</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.3683956783844847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/S-PCA/m1_results_S-PCA.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/S-PCA/m1_results_S-PCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4485,6 +4485,1616 @@
         <v>0.3683956783844847</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:38</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>10</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.5810875563963549</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:39</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>10</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.7249727919408198</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:39</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>10</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.6503028761049646</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:39</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>10</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.6107788660557102</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:39</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>10</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.7003320585365348</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:39</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>10</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.7287763159512626</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:39</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>10</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.7009315285114439</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:01</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>10</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.7249727919408198</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:02</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>10</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.7009315285114439</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:02</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>10</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.5810875563963549</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:02</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>10</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.7287763159512626</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:02</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>10</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.6107788660557102</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:02</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>10</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.7003320585365348</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:03</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>10</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.6503028761049646</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:00</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.6834618577321858</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:00</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.615077171930863</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:01</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.614852389721919</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:01</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.6834642533961615</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:01</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.683461921297552</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:01</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.6834621200515131</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:02</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>3</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.5841592880736864</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:02</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.6834621200515132</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:02</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.6175783757201976</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:02</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.6194475852702671</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:03</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.6227151533645807</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:03</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.6148651381312642</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:03</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>3</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.5800553216584166</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:03</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>3</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.5802687947236237</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:03</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>5</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.5763217541683522</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:04</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>3</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.5806453910464071</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:04</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.6302923590932032</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:04</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.5678602662262653</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:05</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>5</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.5679094101061939</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:05</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>5</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.5657529585568314</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:05</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>3</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.5910405731386503</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:05</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>5</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.566017472149216</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:05</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>5</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.5644555014650496</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:06</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>2</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.6192748528021637</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:06</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.5661116341761216</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:06</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>3</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.5772299978691616</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:06</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>1</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.6834620696891585</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:07</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.6834629200737148</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:07</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>6</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.5971490693226343</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:07</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>6</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.5763062362569621</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:07</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>3</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.5776125086233672</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>6</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.6267767020543153</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>6</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.6697219953955453</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>6</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.6193944875384063</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>6</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.6190611857522113</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>7</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.643052439710071</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>7</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.5986686759092821</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>7</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.5759841008387409</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>7</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.6408102553305423</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>7</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.6474350573347316</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>7</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.6222677411158104</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>7</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.6302295802203574</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>8</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.7230517604940041</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>8</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.6805509945818067</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.5759317693843864</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:08</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>8</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.7170283465655842</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:09</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>8</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.7402522258107795</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:09</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>8</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.7436197379783316</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:09</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>8</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.7122746453958834</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:09</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>10</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.7249727919408198</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:09</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>10</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.7009315285114439</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:09</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>10</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.5810875563963549</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:09</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>10</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.7287763159512626</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:09</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>10</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.6107788660557102</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:09</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>10</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.7003320585365348</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:25:09</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>10</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.6503028761049646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
